--- a/biology/Médecine/Histoire_des_pharmacopées_chinoises/Histoire_des_pharmacopées_chinoises.xlsx
+++ b/biology/Médecine/Histoire_des_pharmacopées_chinoises/Histoire_des_pharmacopées_chinoises.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F8"/>
+  <dimension ref="A1:H8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Histoire_des_pharmacop%C3%A9es_chinoises</t>
+          <t>Histoire_des_pharmacopées_chinoises</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,13 +490,15 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">
 La longue et riche histoire des pharmacopées chinoises est un trait singulier et illustre de la culture chinoise qui la distingue des autres grandes civilisations. Pendant plus de deux millénaires, les Chinois se sont principalement soignés en utilisant des décoctions de substances naturelles végétales, minérales ou animales dont ils ont consigné les recettes dans des pharmacopées (bencao[n 1] en chinois).
 La tradition des pharmacopées a commencé avec le Shennong bencao 神农本草 « Le Classique de la matière médicale du Laboureur Céleste » (Ier – IIe siècles). Cet ouvrage est anonyme. Elle s’est ensuite poursuivie avec Tao Hongjing 陶弘景 (456-536), maitre taoïste, qui reprit le texte du Shennong bencao, le commenta et rajouta 365 nouvelles substances médicinales, ce qui doubla le volume initial. Sous les Tang, l’empereur Tang Gaozong 唐高宗 (628-683) accepta de soutenir la Xinxiu bencao 新修本草, une version commentée de la pharmacopée de Tao Hongjing. Après une pause des publications provoquée par l'engorgement des données en raison de leur accumulation non contrôlée, la publication du Bencao gangmu (本草纲目) de Li Shizhen en 1593 est souvent considérée comme un sommet dans la tradition des pharmacopées chinoises, marquant un apogée dans la méthodologie traditionnelle de compilation et de classification des connaissances médicinales.
-Dans l'histoire des bencao (pharmacopées) chinoises, les chercheurs ont distingué trois grandes traditions: la principale, la thématique et la régionale[1]. La littérature ancienne de la médecine chinoise est immense, comme l’a montré le catalogue publié en 1819 par l’érudit japonais Tanba no Mototane, Zhongguo Yi Ji kao 中国医机考 « Investigations sur la littérature médicale chinoise » qui ne contient pas moins de 2 605 titres[2].
-Dans les encadrés suivants, nous donnons les pharmacopées essentielles publiées de la tradition principale des bencao, que nous avons tirées de l'Encyclopédie d'histoire et littérature chinoise[3], de Paul U. Unschuld[4],[5] et de la List of Chinese Medical Classics[6] ainsi que quelques exemples de pharmacopées régionales et d'ouvrages traitant des substances utilisées à la fois en thérapie et en alimentation. Nous brosserons à grands traits les phases principales de cette histoire.
+Dans l'histoire des bencao (pharmacopées) chinoises, les chercheurs ont distingué trois grandes traditions: la principale, la thématique et la régionale. La littérature ancienne de la médecine chinoise est immense, comme l’a montré le catalogue publié en 1819 par l’érudit japonais Tanba no Mototane, Zhongguo Yi Ji kao 中国医机考 « Investigations sur la littérature médicale chinoise » qui ne contient pas moins de 2 605 titres.
+Dans les encadrés suivants, nous donnons les pharmacopées essentielles publiées de la tradition principale des bencao, que nous avons tirées de l'Encyclopédie d'histoire et littérature chinoise, de Paul U. Unschuld, et de la List of Chinese Medical Classics ainsi que quelques exemples de pharmacopées régionales et d'ouvrages traitant des substances utilisées à la fois en thérapie et en alimentation. Nous brosserons à grands traits les phases principales de cette histoire.
 </t>
         </is>
       </c>
@@ -497,7 +509,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Histoire_des_pharmacop%C3%A9es_chinoises</t>
+          <t>Histoire_des_pharmacopées_chinoises</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -515,12 +527,14 @@
           <t>Étape de fondation (du Ier au  +VIe siècle)</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Depuis les années 1970, des manuscrits de recettes composées de plusieurs matières médicales ont été retrouvées dans des tombes de la période Zhou 周 et du début de la période Han 汉, comme les manuscrits des tombes de Mawangdui[n 2] ou plus récemment des tombes de Lao guan shan 老管山. La liste étoffée des indications thérapeutiques décrites dans ces textes témoigne d’un long développement de la thérapie pharmaceutique avant la compilation d’œuvres avec la description de propriétés de substances individuelles.
-Le premier ouvrage de matières médicales de ce type est le Shennong bencao jing 神农本草经 dont les historiens évaluent la rédaction durant l'époque des deux premiers siècles de l'ère commune[7]. Le texte est constitué d’une liste de substances naturelles à visée thérapeutique ou diététique voire religieuse, organisée en 4 chapitres (parfois 3) et 365 descriptions de drogues. Ce texte est anonyme. Trois grades de drogue en relation respectivement avec le ciel, l’homme et la terre, sont distinguées. Celles de niveaux supérieur (shang yao 上药) ne sont pas destinées à soigner une maladie déclarée mais à garder le corps en bonne santé voire pour les chercheurs d'immortalité, à prolonger la vie (pour 83 % d’entre-elles[5]). Les drogues de grade intermédiaire (zhong yao 中药) sont destinées à contrôler une maladie ou remédier à un état d’émaciation dû à une vacuité. Les drogues de grade inférieure (xia yao 下药) sont des médicaments faits pour traiter une maladie. Ils sont toxiques à forte dose.
+Le premier ouvrage de matières médicales de ce type est le Shennong bencao jing 神农本草经 dont les historiens évaluent la rédaction durant l'époque des deux premiers siècles de l'ère commune. Le texte est constitué d’une liste de substances naturelles à visée thérapeutique ou diététique voire religieuse, organisée en 4 chapitres (parfois 3) et 365 descriptions de drogues. Ce texte est anonyme. Trois grades de drogue en relation respectivement avec le ciel, l’homme et la terre, sont distinguées. Celles de niveaux supérieur (shang yao 上药) ne sont pas destinées à soigner une maladie déclarée mais à garder le corps en bonne santé voire pour les chercheurs d'immortalité, à prolonger la vie (pour 83 % d’entre-elles). Les drogues de grade intermédiaire (zhong yao 中药) sont destinées à contrôler une maladie ou remédier à un état d’émaciation dû à une vacuité. Les drogues de grade inférieure (xia yao 下药) sont des médicaments faits pour traiter une maladie. Ils sont toxiques à forte dose.
 Durant la période allant de la fin des Han au début des Tang (de 220 à 618), l’empire Han se désagrège, en raison des guerres intestines et des invasions étrangères. Durant cette période troublée, le maître taoïste Tao Hongjing 陶弘景 (456-536) se consacre à la rédaction d’ouvrages taoïstes de commentaires des textes de l’École Shangqing mais aussi à l'étude de la matière médicale. La rédaction de traités médicaux faisait pour lui partie intégrante de son activité taoïste. Son œuvre majeure est constituée des « Commentaires du Classique de la matière médicinale » (du Laboureur Céleste) Bencao jing jizhu 本草经集注. Il rajoute 365 nouvelles matières médicales aux 365 anciennes matières. Ces 730 drogues sont classées en 1) minéraux 2) herbes 3) arbres 4) bestioles et animaux 5) légumes et fruits 6) grains. Cet ouvrage de matière médicale est devenu un modèle dont tous les auteurs de bencao vont s’inspirer mais il est aujourd'hui perdu sauf la préface.
-Tao Hongjing inaugure la « tradition principale » des bencao qui sera poursuivie par les auteurs suivants jusqu’au début du XIIIe siècle. Ce mouvement se caractérise par une expansion continue du nombre de données sur la nature, l’origine, les effets thérapeutiques, et les méthodes de traitement des matières brutes des substances naturelles ou faites par l’homme[4].
+Tao Hongjing inaugure la « tradition principale » des bencao qui sera poursuivie par les auteurs suivants jusqu’au début du XIIIe siècle. Ce mouvement se caractérise par une expansion continue du nombre de données sur la nature, l’origine, les effets thérapeutiques, et les méthodes de traitement des matières brutes des substances naturelles ou faites par l’homme.
 Ce format de travail sera adopté par un nombre de plus en plus important de materia medica publiées hors de la tradition principale, qui se focalisaient sur un savoir régional, sur leur expérience personnelle, sur les substances utilisées à la fois en thérapie et en alimentation ou les substances permettant de survivre en période de famine etc.
 </t>
         </is>
@@ -532,7 +546,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Histoire_des_pharmacop%C3%A9es_chinoises</t>
+          <t>Histoire_des_pharmacopées_chinoises</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -550,13 +564,15 @@
           <t>Début des pharmacopées impériales (Tang 唐 - Wudai 五代 618-960)</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">En 657, le haut fonctionnaire Su Jing 蘇敬 / 苏敬 présenta à l’empereur Tang Gaozong une pétition suggérant une nouvelle édition corrigée et complétée du Bencao jing jizhu 本草经集注 « Commentaires du Classique de la matière médicinale [du Laboureur Céleste] » de Tao Hongjing. Vingt deux fonctionnaires furent mobilisés pour réaliser l’œuvre qui put être publiée deux ans plus tard. Elle était intitulée Xīnxiū běncǎo 新修本草 « Nouvelle révision de la matière médicale » et comportait aussi des illustrations de couleur commentées. Ce fut la première pharmacopée commandée par un État au monde et la première pharmacopée à être illustrée par des images en couleur. Au moins depuis 1050, les illustrations et leurs commentaires sont considérées comme perdus. Et du texte sur les notices, seuls des fragments ont persistés.
-L’idée de Su Jing de compiler les anciens textes de matières médicales et d’y ajouter 114 nouveaux remèdes eut un grand succès puisqu’elle fut poursuivie méthodiquement jusqu’à l'époque moderne[7].
+L’idée de Su Jing de compiler les anciens textes de matières médicales et d’y ajouter 114 nouveaux remèdes eut un grand succès puisqu’elle fut poursuivie méthodiquement jusqu’à l'époque moderne.
 Peu de temps après Su Jing, sa pharmacopée Xinxiu bencao fut reprise et complétée par Chen Cangqi 陳藏器 pour donner Bencao shi yi 本草拾遺 « Suppléments de matière médicale ». Ce fut l'œuvre pharmaceutique de référence de l'époque.
 Durant le royaume des Shu postérieur 后蜀 / 後蜀 dans le Sud de la Chine, une nouvelle révision donna le Chongguang yinggong bencao 重广英公本草, généralement appelé Shu bencao 蜀本草 « Matière médicale des Shu ». Une copie manuscrite a été trouvée dans les grottes de Mogao de Dunhuang, dont il ne reste plus que des vestiges au British Museum et à la Bibliothèque nationale de France. Le Japonais Okanishi Tamito 岡西為人  a publié une édition en 10 volumes de la Xinxiu bencao.
-La Chine des Tang (618-960) connut une longue période de désintégration à partir de la révolte d'An Lushan (755-763), jusqu’à la chute de la dynastie, suivie par la division de la Période des Cinq Dynasties et des Dix Royaumes 五代十國 (907-979). Ces troubles ont considérablement vidé les bibliothèques et archives impériales qui contenaient entre-autres les ouvrages de médecines[8].
+La Chine des Tang (618-960) connut une longue période de désintégration à partir de la révolte d'An Lushan (755-763), jusqu’à la chute de la dynastie, suivie par la division de la Période des Cinq Dynasties et des Dix Royaumes 五代十國 (907-979). Ces troubles ont considérablement vidé les bibliothèques et archives impériales qui contenaient entre-autres les ouvrages de médecines.
 </t>
         </is>
       </c>
@@ -567,7 +583,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>Histoire_des_pharmacop%C3%A9es_chinoises</t>
+          <t>Histoire_des_pharmacopées_chinoises</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
@@ -585,14 +601,16 @@
           <t>Le tournant naturaliste Song-Jin-Yuan 宋金元 (960-1368)</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t xml:space="preserve">L’empereur Song Taizu qui unifia la Chine après la période de troubles et de division considérait que le manque de livres et de structures éducatives était la raison majeure du déclin et de la chute de la dynastie Tang. Après une longue interruption des commandes impériales de pharmacopée depuis le milieu de la période Tang, les empereurs Song reprirent les parrainages de bencao. L’intérêt personnel de l’empereur Song Taizu pour la médecine et la pharmacopée contribua à redorer la perception du métier de médecin qui avait été souvent associé à celui de sorcier et de guérisseur itinérant[8].
-Durant la période 960-1127 de la dynastie des Song du Nord, le nombre d’ouvrages de médecine s’accroit considérablement et le nombre de drogues citées dans les bencao double. Fait remarquable observé par Miyashita, la formulation des traitements change pour la première fois. Les formulations qui associent plusieurs ingrédients (de matière médicale ayant subie une préparation) à des doses bien spécifiées étaient restées quasi-inchangés jusqu’au Xe siècle[8].
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">L’empereur Song Taizu qui unifia la Chine après la période de troubles et de division considérait que le manque de livres et de structures éducatives était la raison majeure du déclin et de la chute de la dynastie Tang. Après une longue interruption des commandes impériales de pharmacopée depuis le milieu de la période Tang, les empereurs Song reprirent les parrainages de bencao. L’intérêt personnel de l’empereur Song Taizu pour la médecine et la pharmacopée contribua à redorer la perception du métier de médecin qui avait été souvent associé à celui de sorcier et de guérisseur itinérant.
+Durant la période 960-1127 de la dynastie des Song du Nord, le nombre d’ouvrages de médecine s’accroit considérablement et le nombre de drogues citées dans les bencao double. Fait remarquable observé par Miyashita, la formulation des traitements change pour la première fois. Les formulations qui associent plusieurs ingrédients (de matière médicale ayant subie une préparation) à des doses bien spécifiées étaient restées quasi-inchangés jusqu’au Xe siècle.
 Durant le règne des trois premiers empereurs Song (960 à 1022), seules les bencao et les formulaires furent publiés. Puis le tournant vers des thérapies non pharmaceutiques, fut pis par le quatrième empereur Song Renzong (r. 1023-1063) qui décida de soutenir la publication d’ouvrages de thérapie par acupuncture et moxibustion. 
-La période des Song-Jin-Yuan[n 3] 宋金元 (960-1368) a apporté des changements culturels importants comme le développement du néo-confucianisme qui adopta quelques conceptions naturalistes du taoïsme, et un mouvement de réforme de la pharmacopée qui recourut aux principes naturalistes de la médecine du Huangdi nei jing. Sous la direction du savant polymathe Su Song, la Tu jing bencao a marqué une avancée significative en termes de précisions dans la description botanique des plantes médicinales et des autres substances médicinales. Dans son ouvrage zhenzhu nang 珍珠囊 « Le sac de perles », Zhang Yuansu analyse la matière médicale à la lumière du système de correspondances systématiques des wuxing  五行 et d’autres concepts de la médecine[9]. Les médecins lettrés ont nommé sa doctrine médicale par le nom de son lieu d’origine où il a délivré son enseignement, l’école de Yishui 易水学派 Yishui xuepai[10].
+La période des Song-Jin-Yuan[n 3] 宋金元 (960-1368) a apporté des changements culturels importants comme le développement du néo-confucianisme qui adopta quelques conceptions naturalistes du taoïsme, et un mouvement de réforme de la pharmacopée qui recourut aux principes naturalistes de la médecine du Huangdi nei jing. Sous la direction du savant polymathe Su Song, la Tu jing bencao a marqué une avancée significative en termes de précisions dans la description botanique des plantes médicinales et des autres substances médicinales. Dans son ouvrage zhenzhu nang 珍珠囊 « Le sac de perles », Zhang Yuansu analyse la matière médicale à la lumière du système de correspondances systématiques des wuxing  五行 et d’autres concepts de la médecine. Les médecins lettrés ont nommé sa doctrine médicale par le nom de son lieu d’origine où il a délivré son enseignement, l’école de Yishui 易水学派 Yishui xuepai.
 Pendant plus d'un millénaire, de la dynastie Han à la dynastie Song, les doctrines des correspondances systématiques (développée dans le Huangdi nei jing) et le savoir sur les remèdes naturels (la pharmacopée des bencao 本草) se sont développés en parallèle, avec pratiquement aucune reconnaissance mutuelle
-Ce n’est qu’à partir du début du XIIe siècle, que des auteurs comme Zhang Yuansu (1151-1234) et Kou Zongshi 寇宗奭 (XIIe) puis des élèves de Zhang, comme Li Gao (1180-1251) et Wang Haogu 王好古 (1200-1264), ont ouvert la voie à l’introduction des principes explicatifs des correspondances systématiques venant du Huangdi neijing (chap. 4, 5, 10  du Suwen; chap.11 du Lingshu, etc.), dans la pharmacopée. Ils ont associé les substances pharmaceutiques avec un type de saveur et de qi 气. Et comme ces derniers sont associés avec certaines qualités yin et yang 阴阳 et avec un type de phase (Wuxing 五行), un lien possible avec les pathologies parut possible, celles-ci étant aussi définies dans les mêmes termes. Les notions de qi  et de yin yang, étaient bien pratiques pour proposer des mécanismes explicatifs du fonctionnement des drogues dans l’organisme, en supposant implicitement que ces notions avaient une base empirique solide (ce qui n’a encore jamais été établi)[4].
+Ce n’est qu’à partir du début du XIIe siècle, que des auteurs comme Zhang Yuansu (1151-1234) et Kou Zongshi 寇宗奭 (XIIe) puis des élèves de Zhang, comme Li Gao (1180-1251) et Wang Haogu 王好古 (1200-1264), ont ouvert la voie à l’introduction des principes explicatifs des correspondances systématiques venant du Huangdi neijing (chap. 4, 5, 10  du Suwen; chap.11 du Lingshu, etc.), dans la pharmacopée. Ils ont associé les substances pharmaceutiques avec un type de saveur et de qi 气. Et comme ces derniers sont associés avec certaines qualités yin et yang 阴阳 et avec un type de phase (Wuxing 五行), un lien possible avec les pathologies parut possible, celles-ci étant aussi définies dans les mêmes termes. Les notions de qi  et de yin yang, étaient bien pratiques pour proposer des mécanismes explicatifs du fonctionnement des drogues dans l’organisme, en supposant implicitement que ces notions avaient une base empirique solide (ce qui n’a encore jamais été établi).
 </t>
         </is>
       </c>
@@ -603,7 +621,7 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>Histoire_des_pharmacop%C3%A9es_chinoises</t>
+          <t>Histoire_des_pharmacopées_chinoises</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
@@ -621,14 +639,16 @@
           <t>L'apogée des bencao des Ming 明 (1368-1644)</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
-        <is>
-          <t xml:space="preserve">La tradition principale des bencao commencée par Tao Hongjng fit une halte au XIIIe siècle, comme étouffée par l’accumulation de données incohérentes voire contradictoires à laquelle la méthode de compilation non discriminante avait abouti. Les auteurs ajoutaient des données nouvelles sans se soucier de la cohérence avec leurs prédécesseurs, sans ajouter des commentaires sur les contradictions et les erreurs passées[4]. Le lecteur devait parcourir les données qui s’étaient accumulées au fil des dynasties comme des couches géologiques, pour pouvoir atteindre les dernières innovations.
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t xml:space="preserve">La tradition principale des bencao commencée par Tao Hongjng fit une halte au XIIIe siècle, comme étouffée par l’accumulation de données incohérentes voire contradictoires à laquelle la méthode de compilation non discriminante avait abouti. Les auteurs ajoutaient des données nouvelles sans se soucier de la cohérence avec leurs prédécesseurs, sans ajouter des commentaires sur les contradictions et les erreurs passées. Le lecteur devait parcourir les données qui s’étaient accumulées au fil des dynasties comme des couches géologiques, pour pouvoir atteindre les dernières innovations.
 La tradition principale des bencao fut incapable d’intégrer les nouvelles idées des auteurs de l’époque Song-Jin-Yuan. Il en résultat un arrêt des publications de materia medica à prétentions exhaustives voulant donner tout le savoir passé et présent.
 Ce n’est qu’au XVIe siècle que deux auteurs introduisent une meilleure organisation des données et présentent des bencao exhaustives, tout en n'étant pas lourdement redondantes.
-D’abord Yu zhi ben cao pin hui jing yao 御制本草品彙精要, « Matière médicale écrite sur ordre impérial, contenant des données essentielles disposées selon un ordre systématique » publiée en 1505, de Liu Wentai 刘文泰 (dont la forme abrégée est Bencao pinhui jingyao 本草品彙精要). En 1503, Liu Wentai reçut l’ordre de l’empereur Ming Xiaozong 明孝宗 (1470-1505) de « préparer une nouvelle édition de bencao qui simplifierait la consultation ». Pour ce faire, chaque notice était divisée en 24 rubriques. L’ouvrage accompagné de superbes illustrations fut réalisé en deux ans. L’empereur mourut et l’ouvrage ne fut jamais publié. En 1701, une version révisée et amendée, sans illustrations, fut préparée sur l’ordre de l’empereur Kangxi 康熙. Elle ne put être publiée qu’en 1937 par la Shanghai Commercial Press; en français une version allégée existe[12].
+D’abord Yu zhi ben cao pin hui jing yao 御制本草品彙精要, « Matière médicale écrite sur ordre impérial, contenant des données essentielles disposées selon un ordre systématique » publiée en 1505, de Liu Wentai 刘文泰 (dont la forme abrégée est Bencao pinhui jingyao 本草品彙精要). En 1503, Liu Wentai reçut l’ordre de l’empereur Ming Xiaozong 明孝宗 (1470-1505) de « préparer une nouvelle édition de bencao qui simplifierait la consultation ». Pour ce faire, chaque notice était divisée en 24 rubriques. L’ouvrage accompagné de superbes illustrations fut réalisé en deux ans. L’empereur mourut et l’ouvrage ne fut jamais publié. En 1701, une version révisée et amendée, sans illustrations, fut préparée sur l’ordre de l’empereur Kangxi 康熙. Elle ne put être publiée qu’en 1937 par la Shanghai Commercial Press; en français une version allégée existe.
 La seconde œuvre est le Bencao gangmu 本草纲目 de 1593 compilée par Li Shizhen (1518-1593). L’auteur y reprend le projet de Bencao pinhui jingyao mais en limitant le nombre de rubriques de chaque notice à 10 (au lieu de 24): 1) shiming 释明 philologie, dialecte local, étymologie, 2) jijie 集解 lieu d’origine, apparence,...5) xiuzhi 修治 préparation pharmaceutique 6) qiwei 气味 (氣味) qualités (qi) et saveurs, nature toxique 7) zhuzhi 主治 indications thérapeutiques principales etc.
-Après 16 siècles de production de bencao, de plus en plus complexes, et traitant de plus en plus de substances médicinales (1895 en tout), l’écriture chinoise, logographique, ne permettant pas de faire de classification alphabétique, Li Shizhen propose d’organiser ces myriades de choses, du plus modeste au plus gros, allant des airs, eaux et minéraux, puis des petites aux grandes plantes, aux invertébrés, vertébrés, mammifères et finalement l’homme. Cette classification est l’innovation principale de Li Shizhen mais ne constitue en rien une taxonomie moderne des genres naturels[13]. Les autres apports importants de Li est de compléter les informations médicales par des données d’histoire naturelle. Le Bencao gangmu, est le seul texte combinant la pharmacopée et l'histoire naturelle, jamais produit en Chine[14]. Le Bencao gangmu est donc une œuvre majeure qui sera considérée comme le point culminant, l’apogée de ce qui peut être fait avec la méthode traditionnelle de compilation et de classification des connaissances médicales. Ce travail monumental a non seulement systématisé la connaissance des substances médicinales accumulées jusqu'alors, mais a également introduit de nouvelles substances et leurs applications, faisant de cet ouvrage une référence incontournable dans le domaine de la pharmacopée chinoise.
+Après 16 siècles de production de bencao, de plus en plus complexes, et traitant de plus en plus de substances médicinales (1895 en tout), l’écriture chinoise, logographique, ne permettant pas de faire de classification alphabétique, Li Shizhen propose d’organiser ces myriades de choses, du plus modeste au plus gros, allant des airs, eaux et minéraux, puis des petites aux grandes plantes, aux invertébrés, vertébrés, mammifères et finalement l’homme. Cette classification est l’innovation principale de Li Shizhen mais ne constitue en rien une taxonomie moderne des genres naturels. Les autres apports importants de Li est de compléter les informations médicales par des données d’histoire naturelle. Le Bencao gangmu, est le seul texte combinant la pharmacopée et l'histoire naturelle, jamais produit en Chine. Le Bencao gangmu est donc une œuvre majeure qui sera considérée comme le point culminant, l’apogée de ce qui peut être fait avec la méthode traditionnelle de compilation et de classification des connaissances médicales. Ce travail monumental a non seulement systématisé la connaissance des substances médicinales accumulées jusqu'alors, mais a également introduit de nouvelles substances et leurs applications, faisant de cet ouvrage une référence incontournable dans le domaine de la pharmacopée chinoise.
 </t>
         </is>
       </c>
@@ -639,7 +659,7 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>Histoire_des_pharmacop%C3%A9es_chinoises</t>
+          <t>Histoire_des_pharmacopées_chinoises</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
@@ -657,7 +677,9 @@
           <t>Période Qing 清 (1644-1911)</t>
         </is>
       </c>
-      <c r="F7" t="inlineStr">
+      <c r="F7" t="inlineStr"/>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
         <is>
           <t xml:space="preserve">Après l'échec du soutient impérial à la publication de bencao durant les Ming, la dynastie Qing malgré la tentative de l'empereur Kangxi ne réussit pas a relancer les commandes étatiques.
 Durant la dynastie Qing, les travaux pharmacologiques qui suivirent tentèrent souvent de conserver le format et l'approche systématique introduits par Li Shizhen. La période postérieure à Li Shizhen est caractérisée par des efforts pour intégrer les connaissances traditionnelles à la pratique médicale moderne, ainsi que par la standardisation et la globalisation de la médecine chinoise.
@@ -671,7 +693,7 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>Histoire_des_pharmacop%C3%A9es_chinoises</t>
+          <t>Histoire_des_pharmacopées_chinoises</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
@@ -689,14 +711,16 @@
           <t>Période post-impériale</t>
         </is>
       </c>
-      <c r="F8" t="inlineStr">
+      <c r="F8" t="inlineStr"/>
+      <c r="G8" t="inlineStr"/>
+      <c r="H8" t="inlineStr">
         <is>
           <t xml:space="preserve">Commencée dans les années 1980 et publiée en plusieurs volumes jusqu'au début des années 2000, la Zhonghua Bencao 中华本草 représente une tentative moderne de documenter et de standardiser la connaissance des herbes médicinales chinoises, avec un accent particulier sur la recherche pharmacologique contemporaine. Pharmacopoeia of the People's Republic of China (en) est une pharmacopée couvrant la médecine traditionnelle chinoise et les médecines occidentales. Elle comporte 4 volumes 
 Médecine chinoise traditionnelle
 Les médicaments chimiques
 Préparations biologiques
 Règles générales et excipients pharmaceutiques
-À partir des années 2000, un groupe de travail franco-chinois a étudié une cinquantaine de plantes de la Pharmacopée chinoise afin de les inscrire à la pharmacopée française et de leur donner un statut de plantes médicinales. Ce travail a été relayé au niveau européen et une soixantaine de plantes de la pharmacopée chinoise sont maintenant inscrites à la Pharmacopée européenne[15].
+À partir des années 2000, un groupe de travail franco-chinois a étudié une cinquantaine de plantes de la Pharmacopée chinoise afin de les inscrire à la pharmacopée française et de leur donner un statut de plantes médicinales. Ce travail a été relayé au niveau européen et une soixantaine de plantes de la pharmacopée chinoise sont maintenant inscrites à la Pharmacopée européenne.
 </t>
         </is>
       </c>
